--- a/doc/Protocol/MQTT消息格式.xlsx
+++ b/doc/Protocol/MQTT消息格式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SimpleMQTTGateWayProtocol\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SimpleMQTTGateWayStack\doc\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD833CE-712B-4C80-B843-ED3B5CABE388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707917DD-F82D-4C63-8A40-641BA631E363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>目标地址</t>
   </si>
   <si>
-    <t>对于网关而言,其地址为其序列号</t>
-  </si>
-  <si>
-    <t>对于服务器而言,其地址为其名称(服务器名称不可与网关序列号相同),默认的服务器名称为DefaultServer。</t>
-  </si>
-  <si>
     <t>源地址</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>设备序列号</t>
   </si>
   <si>
-    <t>通常为长度为16的字符串,一般由字母加数字组成,表示对应的设备模块。</t>
-  </si>
-  <si>
     <t>设备位置号</t>
   </si>
   <si>
@@ -187,6 +178,18 @@
   </si>
   <si>
     <t>十进制数字符串,长度一般小于等于3,对于一般设备,位置号的范围为1~255,表示对应的设备模块。通常不直接使用位置号。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于网关而言,其地址为其序列号。通常为长度大于等于16的字符串。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于服务器而言,其地址为其名称(服务器名称不可与网关序列号相同),默认的服务器名称为DefaultServer。通常为长度小于16的字符串。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串,表示对应的设备模块。当字符串长度小于等于3时，不可为纯数字字符。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -249,16 +252,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,347 +599,350 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
+    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2" t="s">
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2" t="s">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2" t="s">
+    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2" t="s">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B5:D10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B11:D15"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="B16:D29"/>
@@ -909,15 +953,12 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:D10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
